--- a/SettlementGenerator.xlsx
+++ b/SettlementGenerator.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Dropbox\World\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\SettlementGenerator\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="126">
   <si>
     <t>Peasants:</t>
   </si>
@@ -65,18 +65,12 @@
     <t>cal/day</t>
   </si>
   <si>
-    <t>Farm areal needed in Hectare</t>
-  </si>
-  <si>
     <t>Planting/harvesting speed</t>
   </si>
   <si>
     <t>Farmers needed</t>
   </si>
   <si>
-    <t>ha/2man team/day</t>
-  </si>
-  <si>
     <t>Cow</t>
   </si>
   <si>
@@ -243,13 +237,182 @@
   </si>
   <si>
     <t>Death rate</t>
+  </si>
+  <si>
+    <t>Calorie Requirements</t>
+  </si>
+  <si>
+    <t>Population growth per year</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>Diet distribution</t>
+  </si>
+  <si>
+    <t>Food production in calories</t>
+  </si>
+  <si>
+    <t>Calorie distribution</t>
+  </si>
+  <si>
+    <t>Anamal weights</t>
+  </si>
+  <si>
+    <t>Animal calorie distribution</t>
+  </si>
+  <si>
+    <t>Animal growth time</t>
+  </si>
+  <si>
+    <t>Farm areal requirements - In hectare</t>
+  </si>
+  <si>
+    <t>Minimum amount of animals required to feed the town</t>
+  </si>
+  <si>
+    <t>2man teams planting/harvesting time per day in hectare</t>
+  </si>
+  <si>
+    <t>Cattle uses and distribution</t>
+  </si>
+  <si>
+    <t>Dairy production requirements</t>
+  </si>
+  <si>
+    <t>Magic Shops</t>
+  </si>
+  <si>
+    <t>Tavern</t>
+  </si>
+  <si>
+    <t>Inn</t>
+  </si>
+  <si>
+    <t>Settlement area including local farms</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Hectare</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Farms</t>
+  </si>
+  <si>
+    <t>Total area</t>
+  </si>
+  <si>
+    <t>Area for single year</t>
+  </si>
+  <si>
+    <t>Average household size</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Houses</t>
+  </si>
+  <si>
+    <t>Average housesize</t>
+  </si>
+  <si>
+    <t>Servants</t>
+  </si>
+  <si>
+    <t>Artisans</t>
+  </si>
+  <si>
+    <t>Artisans:</t>
+  </si>
+  <si>
+    <t>Size in hectare</t>
+  </si>
+  <si>
+    <t>Size in m2</t>
+  </si>
+  <si>
+    <t>Farming production</t>
+  </si>
+  <si>
+    <t>kg/ha/day</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>City center</t>
+  </si>
+  <si>
+    <t>Town types</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Town types and populations</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Metropol</t>
+  </si>
+  <si>
+    <t>Large town</t>
+  </si>
+  <si>
+    <t>Town</t>
+  </si>
+  <si>
+    <t>Small town</t>
+  </si>
+  <si>
+    <t>Settlement</t>
+  </si>
+  <si>
+    <t>Hamlet</t>
+  </si>
+  <si>
+    <t>Village</t>
+  </si>
+  <si>
+    <t>Major City</t>
+  </si>
+  <si>
+    <t>Large City</t>
+  </si>
+  <si>
+    <t>Artisan</t>
+  </si>
+  <si>
+    <t>Population distribution</t>
+  </si>
+  <si>
+    <t>Hunter</t>
+  </si>
+  <si>
+    <t>Square dim in m</t>
+  </si>
+  <si>
+    <t>Food production/consumption</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,6 +428,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -274,7 +444,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -362,11 +532,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -386,33 +595,113 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -724,42 +1013,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D4:X37"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="D4:Z59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X12" sqref="X12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="P55" sqref="P55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="16" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="15.5703125" customWidth="1"/>
+    <col min="15" max="15" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.140625" customWidth="1"/>
+    <col min="17" max="17" width="14" customWidth="1"/>
+    <col min="18" max="18" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="U4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="V4" t="s">
-        <v>68</v>
-      </c>
-      <c r="W4" t="s">
+    <row r="4" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D4" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="36"/>
+      <c r="H4" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="30"/>
+      <c r="Q4" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="36"/>
+      <c r="W4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X4" t="s">
         <v>66</v>
       </c>
-      <c r="X4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D5" s="2"/>
       <c r="E5" s="4" t="s">
         <v>3</v>
@@ -770,41 +1087,51 @@
       <c r="I5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="N5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="R5" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="P5" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="R5" s="4" t="s">
+      <c r="S5" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="U5" t="s">
-        <v>44</v>
-      </c>
-      <c r="V5">
-        <f>K12+K13+N23</f>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="T5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="W5" t="s">
+        <v>42</v>
+      </c>
+      <c r="X5">
+        <f>K13+K14+Q20</f>
+        <v>40</v>
+      </c>
+      <c r="Y5">
+        <f>ROUNDUP(X5*1.2,0)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D6" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E6" s="8">
-        <v>1130</v>
+        <v>1000</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>5</v>
@@ -812,48 +1139,55 @@
       <c r="I6" s="13">
         <v>0.7</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="56">
+        <v>0.6</v>
+      </c>
+      <c r="K6" s="14">
         <v>0.4</v>
       </c>
       <c r="L6" s="5">
-        <f>E17*I6</f>
+        <f>E18*I6</f>
         <v>2100</v>
       </c>
-      <c r="M6" s="8">
-        <f>E18*J6</f>
+      <c r="M6" s="5">
+        <f>E19*J6</f>
+        <v>1920</v>
+      </c>
+      <c r="N6" s="8">
+        <f>E20*K6</f>
         <v>1400</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="Q6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="P6" s="6">
+      <c r="R6" s="6">
         <v>3.4700000000000002E-2</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="S6" s="6">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="R6" s="8">
-        <f>ROUNDUP((P6-Q6)*E6,0)</f>
-        <v>26</v>
-      </c>
-      <c r="U6" t="s">
-        <v>45</v>
-      </c>
-      <c r="V6">
-        <f>ROUNDUP(J27/200,0)</f>
+      <c r="T6" s="8">
+        <f>ROUNDUP((R6-S6)*E6,0)</f>
+        <v>23</v>
+      </c>
+      <c r="W6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y6">
+        <f>ROUNDUP(J32/200,0)</f>
         <v>1</v>
       </c>
-      <c r="X6">
-        <f>3*V6</f>
+      <c r="Z6">
+        <f>3*Y6</f>
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="D7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8">
-        <v>100</v>
+    <row r="7" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>6</v>
@@ -861,49 +1195,55 @@
       <c r="I7" s="13">
         <v>0.25</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="56">
         <v>0.3</v>
       </c>
+      <c r="K7" s="14">
+        <v>0.3</v>
+      </c>
       <c r="L7" s="5">
-        <f>E17*I7</f>
+        <f>E18*I7</f>
         <v>750</v>
       </c>
-      <c r="M7" s="8">
-        <f>E18*J7</f>
+      <c r="M7" s="5">
+        <f t="shared" ref="M7" si="0">E19*J7</f>
+        <v>960</v>
+      </c>
+      <c r="N7" s="8">
+        <f>E20*K7</f>
         <v>1050</v>
       </c>
-      <c r="O7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="P7" s="10">
-        <v>2.46E-2</v>
-      </c>
-      <c r="Q7" s="10">
-        <v>9.8499999999999994E-3</v>
-      </c>
-      <c r="R7" s="12">
-        <f>ROUNDUP((P7-Q7)*E7,0)</f>
+      <c r="Q7" t="s">
+        <v>100</v>
+      </c>
+      <c r="R7">
+        <v>2.98E-2</v>
+      </c>
+      <c r="S7">
+        <v>1.03E-2</v>
+      </c>
+      <c r="T7" s="8">
+        <f>ROUNDUP((R7-S7)*E7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y7">
+        <f>ROUNDUP((S13/365)/2,0)</f>
         <v>2</v>
       </c>
-      <c r="U7" t="s">
-        <v>59</v>
-      </c>
-      <c r="V7">
-        <f>ROUNDUP((P17/365)/2,0)</f>
-        <v>3</v>
-      </c>
-      <c r="X7">
-        <f>V7*3</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="D8" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="12">
-        <f>SUM(E6:E7)</f>
-        <v>1230</v>
+      <c r="Z7">
+        <f>Y7*3</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>9</v>
@@ -911,30 +1251,57 @@
       <c r="I8" s="13">
         <v>0.05</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="K8" s="14">
         <v>0.3</v>
       </c>
       <c r="L8" s="5">
-        <f>E17*I8</f>
+        <f>E18*I8</f>
         <v>150</v>
       </c>
-      <c r="M8" s="8">
-        <f>E18*J8</f>
+      <c r="M8" s="5">
+        <f>E19*J8</f>
+        <v>320</v>
+      </c>
+      <c r="N8" s="8">
+        <f>E20*K8</f>
         <v>1050</v>
       </c>
-      <c r="U8" t="s">
-        <v>46</v>
-      </c>
-      <c r="V8">
-        <f>ROUNDUP((P18/2),0)</f>
+      <c r="Q8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="R8" s="10">
+        <v>2.46E-2</v>
+      </c>
+      <c r="S8" s="10">
+        <v>9.8499999999999994E-3</v>
+      </c>
+      <c r="T8" s="12">
+        <f>ROUNDUP((R8-S8)*E8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y8">
+        <f>ROUNDUP((S14/2),0)</f>
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <f>Y8*3</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D9" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="X8">
-        <f>V8*3</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="E9" s="12">
+        <f>SUM(E6:E8)</f>
+        <v>1000</v>
+      </c>
       <c r="H9" s="9" t="s">
         <v>2</v>
       </c>
@@ -942,580 +1309,1275 @@
         <f>SUM(I6:I8)</f>
         <v>1</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="15">
         <f>SUM(J6:J8)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="K9" s="16">
+        <f>SUM(K6:K8)</f>
         <v>1</v>
       </c>
       <c r="L9" s="9">
         <f>SUM(L6:L8)</f>
         <v>3000</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9" s="9">
         <f>SUM(M6:M8)</f>
+        <v>3200</v>
+      </c>
+      <c r="N9" s="12">
+        <f>SUM(N6:N8)</f>
         <v>3500</v>
       </c>
-      <c r="U9" t="s">
+      <c r="W9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y9">
+        <f>ROUNDUP(X5/25,0)</f>
+        <v>2</v>
+      </c>
+      <c r="Z9">
+        <f>Y9*3</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="P10" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="36"/>
+      <c r="W10" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y10">
+        <f>ROUNDUP(S12/35,0)</f>
+        <v>2</v>
+      </c>
+      <c r="Z10">
+        <f>Y10*3</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D11" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="36"/>
+      <c r="H11" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="P11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T11" s="4"/>
+      <c r="W11" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y11">
+        <f>ROUNDUP(E6*0.02,0)</f>
+        <v>20</v>
+      </c>
+      <c r="Z11">
+        <f>ROUNDUP(E6*0.1,0)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="P12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>4</v>
+      </c>
+      <c r="R12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="S12" s="7">
+        <f>(I18*I43)*Q12</f>
+        <v>67</v>
+      </c>
+      <c r="T12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="W12" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y12">
+        <f>ROUNDUP((T6/20)+(T7/15)+(T8/10),0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="17">
+        <v>40000</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="6">
+        <f>((E6*L6)/E13)+((E8*N6)/E13)+((E7*M6)/E13)</f>
+        <v>52.5</v>
+      </c>
+      <c r="J13" s="7">
+        <f>ROUNDUP(I13*2,0)</f>
+        <v>105</v>
+      </c>
+      <c r="K13" s="7">
+        <f>ROUNDUP((J13/(H25*20))*2,0)</f>
+        <v>27</v>
+      </c>
+      <c r="L13" s="19">
+        <f>(K13/2)*4</f>
+        <v>54</v>
+      </c>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="P13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>8</v>
+      </c>
+      <c r="R13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S13" s="7">
+        <f>I19*Q13</f>
+        <v>880</v>
+      </c>
+      <c r="T13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="W13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y13">
+        <f>ROUNDUP((T6/20)+(T7/15)+(T8/10),0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D14" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="18">
+        <v>45000</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="10">
+        <f>((E6*L7)/E14)+((E8*N7)/E14)+((E7*M7)/E14)</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="J14" s="11">
+        <f>ROUNDUP(I14*2,0)</f>
+        <v>34</v>
+      </c>
+      <c r="K14" s="11">
+        <f>ROUNDUP((J14/(H25*20))*2,0)</f>
+        <v>9</v>
+      </c>
+      <c r="L14" s="20">
+        <f>(K14/2)*4</f>
+        <v>18</v>
+      </c>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="P14" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q14" s="10">
+        <v>30</v>
+      </c>
+      <c r="R14" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="S14" s="11">
+        <f>ROUNDDOWN(Q14/(E24/(J32*I36)),1)</f>
+        <v>1.3</v>
+      </c>
+      <c r="T14" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="V9">
-        <f>ROUNDUP(V5/25,0)</f>
+      <c r="W14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="W15" t="s">
+        <v>60</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <f>ROUNDDOWN(SUM(E7:E8)/1500,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <f>ROUNDUP(SUM(E7:E8)/500,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D16" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="29"/>
+      <c r="H16" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="36"/>
+      <c r="P16" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="36"/>
+      <c r="W16" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y16">
+        <f>ROUNDUP((E6/500)+(E7/100)+(E8/250),0)</f>
         <v>2</v>
       </c>
-      <c r="X9">
-        <f>V9*3</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="U10" t="s">
-        <v>56</v>
-      </c>
-      <c r="V10">
-        <f>ROUNDUP(P16/35,0)</f>
+    </row>
+    <row r="17" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P17" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="44"/>
+      <c r="S17" s="44"/>
+      <c r="T17" s="54"/>
+      <c r="W17" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y17">
+        <f>ROUNDUP((E6/1000)+(E7/200)+(E8/150),0)</f>
+        <v>1</v>
+      </c>
+      <c r="Z17">
+        <f>ROUNDUP((E6/300)+(E8/35),0)</f>
         <v>4</v>
       </c>
-      <c r="X10">
-        <f>V10*3</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="D11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="3" t="s">
+    </row>
+    <row r="18" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="8">
+        <v>3000</v>
+      </c>
+      <c r="H18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="U11" t="s">
-        <v>57</v>
-      </c>
-      <c r="W11">
-        <f>ROUNDUP(E6*0.02,0)</f>
-        <v>23</v>
-      </c>
-      <c r="X11">
-        <f>ROUNDUP(E6*0.1,0)</f>
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="D12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="17">
-        <v>40000</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" s="6">
-        <f>((E6*L6)/E12)+((E7*M6)/E12)</f>
-        <v>62.825000000000003</v>
-      </c>
-      <c r="J12" s="7">
-        <f>ROUNDUP(I12*2,0)</f>
-        <v>126</v>
-      </c>
-      <c r="K12" s="7">
-        <f>ROUNDUP((J12/(H21*20))*2,0)</f>
-        <v>32</v>
-      </c>
-      <c r="L12" s="22">
-        <f>(K12/2)*4</f>
-        <v>64</v>
-      </c>
-      <c r="U12" t="s">
-        <v>58</v>
-      </c>
-      <c r="V12">
-        <f>ROUNDUP((R6/20)+(R7/10),0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="D13" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="18">
-        <v>45000</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I13" s="10">
-        <f>((E6*L7)/E13)+((E7*M7)/E13)</f>
-        <v>21.166666666666664</v>
-      </c>
-      <c r="J13" s="11">
-        <f>ROUNDUP(I13*2,0)</f>
-        <v>43</v>
-      </c>
-      <c r="K13" s="11">
-        <f>ROUNDUP((J13/(H21*20))*2,0)</f>
-        <v>11</v>
-      </c>
-      <c r="L13" s="23">
-        <f>(K13/2)*4</f>
-        <v>22</v>
-      </c>
-      <c r="U13" t="s">
-        <v>60</v>
-      </c>
-      <c r="V13">
-        <f>ROUNDUP((R6/20)+(R7/10),0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="U14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="H15" s="2"/>
-      <c r="I15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q15" s="4"/>
-      <c r="U15" t="s">
-        <v>62</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <f>ROUNDUP(E7/500,0)</f>
+      <c r="I18" s="6">
+        <f>ROUNDUP((E34/(E24/(J32*I36))),0)</f>
+        <v>67</v>
+      </c>
+      <c r="J18" s="7">
+        <f>ROUNDUP(I18/2,0)</f>
+        <v>34</v>
+      </c>
+      <c r="K18" s="21">
+        <f>ROUNDUP(I18/100,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="D16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" s="6">
-        <f>ROUNDUP((E29/(E21/(J27*I30))),0)</f>
-        <v>115</v>
-      </c>
-      <c r="J16" s="7">
-        <f>ROUNDUP(I16/2,0)</f>
-        <v>58</v>
-      </c>
-      <c r="K16" s="24">
-        <f>ROUND(I16/100,0)</f>
-        <v>1</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="N16" s="6">
-        <v>4</v>
-      </c>
-      <c r="O16" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="P16" s="7">
-        <f>(I16*I37)*N16</f>
-        <v>115</v>
-      </c>
-      <c r="Q16" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="U16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="D17" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="8">
-        <v>3000</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I17" s="6">
-        <f>ROUNDUP((E30/(E22/(J27*I31))),0)</f>
-        <v>190</v>
-      </c>
-      <c r="J17" s="7">
-        <f>ROUNDUP(I17/15,0)</f>
-        <v>13</v>
-      </c>
-      <c r="K17" s="24">
-        <f t="shared" ref="K17:K18" si="0">ROUND(I17/100,0)</f>
-        <v>2</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N17" s="6">
-        <v>8</v>
-      </c>
-      <c r="O17" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="P17" s="7">
-        <f>I17*N17</f>
-        <v>1520</v>
-      </c>
-      <c r="Q17" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="U17" t="s">
-        <v>64</v>
-      </c>
-      <c r="V17">
-        <f>ROUNDUP((E6/500)+(E7/75),0)</f>
-        <v>4</v>
-      </c>
-      <c r="X17">
-        <f>ROUNDUP((E6/300)+(E7/35),0)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="D18" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="12">
-        <v>3500</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10">
-        <f t="shared" ref="J17:J18" si="1">ROUNDUP(I18/2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M18" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="N18" s="10">
-        <v>30</v>
-      </c>
-      <c r="O18" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="P18" s="11">
-        <f>ROUNDDOWN(N18/(E21/(J27*I30)),1)</f>
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="Q18" s="12" t="s">
+      <c r="P18" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="U18" t="s">
-        <v>65</v>
-      </c>
-      <c r="V18">
-        <f>ROUNDUP(E8/200,0)</f>
-        <v>7</v>
-      </c>
-      <c r="X18">
-        <f>ROUNDUP(E8/100,0)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="D20" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="H20" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" s="21"/>
-      <c r="J20" s="25"/>
-      <c r="M20" s="20" t="s">
+      <c r="Q18" s="6">
+        <v>45</v>
+      </c>
+      <c r="R18" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="4"/>
-    </row>
-    <row r="21" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="D21" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="6">
-        <v>1100</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="I21" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="J21" s="27"/>
-      <c r="M21" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="N21" s="6">
-        <v>45</v>
-      </c>
-      <c r="O21" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="P21" s="6">
+      <c r="S18" s="6">
         <f>45/60</f>
         <v>0.75</v>
       </c>
-      <c r="Q21" s="8" t="s">
+      <c r="T18" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="W18" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y18">
+        <f>ROUNDUP(E9/200,0)</f>
+        <v>5</v>
+      </c>
+      <c r="Z18">
+        <f>ROUNDUP(E9/100,0)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D19" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19">
+        <v>3200</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="6">
+        <f>ROUNDUP((E35/(E25/(J32*I37))),0)</f>
+        <v>110</v>
+      </c>
+      <c r="J19" s="7">
+        <f>ROUNDUP(I19/15,0)</f>
+        <v>8</v>
+      </c>
+      <c r="K19" s="21">
+        <f>ROUNDUP(I19/100,0)</f>
+        <v>2</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>4</v>
+      </c>
+      <c r="R19" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="S19" s="6"/>
+      <c r="T19" s="8"/>
+      <c r="W19" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y19">
+        <f>ROUNDDOWN(E6/3000,0)+ROUNDUP((E8+E7)/150,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="12">
+        <v>3500</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10">
+        <f t="shared" ref="J20" si="1">ROUNDUP(I20/2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="12">
+        <f>ROUNDUP(I20/100,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P20" s="9" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="22" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="D22" s="9" t="s">
+      <c r="Q20" s="11">
+        <f>ROUNDUP(((J43*S18)/Q19),0)</f>
+        <v>4</v>
+      </c>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="12"/>
+      <c r="W20" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y20">
+        <f>ROUNDUP(E9/300,0)</f>
+        <v>4</v>
+      </c>
+      <c r="Z20">
+        <f>Y20*5</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="N21">
+        <f>300/12</f>
+        <v>25</v>
+      </c>
+      <c r="W21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D22" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="35"/>
+      <c r="F22" s="36"/>
+      <c r="H22" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="32"/>
+      <c r="J22" s="33"/>
+      <c r="P22" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q22" s="47"/>
+      <c r="S22" s="57"/>
+      <c r="W22" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y22">
+        <f>ROUNDUP((R45*3)+(R46*5),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D23" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="H23" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="I23" s="38"/>
+      <c r="J23" s="39"/>
+      <c r="P23" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>105</v>
+      </c>
+      <c r="R23" t="s">
+        <v>106</v>
+      </c>
+      <c r="W23" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="6">
+        <v>1100</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="37"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="39"/>
+      <c r="P24" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24">
+        <v>14</v>
+      </c>
+      <c r="R24">
+        <f>Q24*I13</f>
+        <v>735</v>
+      </c>
+    </row>
+    <row r="25" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D25" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="10">
+        <v>100</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="40">
+        <v>0.4</v>
+      </c>
+      <c r="I25" s="41"/>
+      <c r="J25" s="42"/>
+      <c r="P25" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q25">
+        <v>16</v>
+      </c>
+      <c r="R25">
+        <f>Q25*I14</f>
+        <v>266.66666666666669</v>
+      </c>
+    </row>
+    <row r="26" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="P26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D27" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" s="35"/>
+      <c r="F27" s="36"/>
+    </row>
+    <row r="28" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="10">
+      <c r="H28" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" s="32"/>
+      <c r="J28" s="33"/>
+    </row>
+    <row r="29" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D29" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="6">
+        <v>180</v>
+      </c>
+      <c r="F29" s="8">
+        <f>E29*10</f>
+        <v>1800</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" s="6">
+        <f>ROUNDUP(L8/F29,1)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J29" s="21">
+        <f>I29*E6</f>
         <v>100</v>
       </c>
-      <c r="F22" s="12" t="s">
+    </row>
+    <row r="30" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D30" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="M22" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="N22" s="6">
-        <v>4</v>
-      </c>
-      <c r="O22" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="8"/>
-    </row>
-    <row r="23" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="M23" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="N23" s="11">
-        <f>ROUNDUP(((J37*P21)/N22),0)</f>
-        <v>6</v>
-      </c>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="12"/>
-    </row>
-    <row r="24" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="D24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="4" t="s">
+      <c r="E30" s="10">
+        <v>180</v>
+      </c>
+      <c r="F30" s="12">
+        <f>E30*10</f>
+        <v>1800</v>
+      </c>
+      <c r="H30" t="s">
+        <v>100</v>
+      </c>
+      <c r="I30" s="6">
+        <f>ROUNDUP(M8/F30,1)</f>
+        <v>0.2</v>
+      </c>
+      <c r="J30" s="21">
+        <f>I30*E7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="H31" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" s="6">
+        <f>ROUNDUP(N8/F29,1)</f>
+        <v>0.6</v>
+      </c>
+      <c r="J31" s="21">
+        <f>I31*E8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D32" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" s="36"/>
+      <c r="H32" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I32" s="10">
+        <f>SUM(I29:I31)</f>
+        <v>0.9</v>
+      </c>
+      <c r="J32" s="22">
+        <f>SUM(J29:J31)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D34" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="8">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="35" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D35" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="25"/>
-    </row>
-    <row r="25" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="D25" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="6">
-        <v>180</v>
-      </c>
-      <c r="F25" s="8">
-        <f>E25*10</f>
-        <v>1800</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I25" s="6">
-        <f>ROUNDUP(L8/F25,1)</f>
-        <v>0.1</v>
-      </c>
-      <c r="J25" s="24">
-        <f>I25*E6</f>
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="D26" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="10">
-        <v>180</v>
-      </c>
-      <c r="F26" s="12">
-        <f>E26*10</f>
-        <v>1800</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I26" s="6">
-        <f>ROUNDUP(M8/F25,1)</f>
-        <v>0.6</v>
-      </c>
-      <c r="J26" s="24">
-        <f>I26*E7</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="H27" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="I27" s="10">
-        <f>SUM(I25:I26)</f>
-        <v>0.7</v>
-      </c>
-      <c r="J27" s="28">
-        <f>SUM(J25:J26)</f>
-        <v>173</v>
-      </c>
-    </row>
-    <row r="28" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="D28" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="D29" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="8">
-        <v>1460</v>
-      </c>
-      <c r="H29" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="I29" s="21"/>
-      <c r="J29" s="25"/>
-    </row>
-    <row r="30" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="D30" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E30" s="12">
+      <c r="E35" s="12">
         <f>365*3</f>
         <v>1095</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="H35" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="I35" s="32"/>
+      <c r="J35" s="33"/>
+      <c r="P35" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q35" s="55"/>
+    </row>
+    <row r="36" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="H36" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="J36" s="8"/>
+      <c r="P36" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>90</v>
+      </c>
+      <c r="R36" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="H37" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="J37" s="8"/>
+      <c r="P37" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q37">
+        <f>ROUNDUP(SUM(U44:U46)*4,0)</f>
+        <v>7</v>
+      </c>
+      <c r="R37" s="45">
+        <f>SQRT((Q37*10000))</f>
+        <v>264.57513110645908</v>
+      </c>
+    </row>
+    <row r="38" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="H38" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I38" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="J38" s="12"/>
+      <c r="P38" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q38">
+        <f>J13+J14+J18+J19+J20</f>
+        <v>181</v>
+      </c>
+      <c r="R38" s="45">
+        <f>SQRT((Q38*10000))</f>
+        <v>1345.3624047073711</v>
+      </c>
+    </row>
+    <row r="39" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="P39" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q39" s="1">
+        <f>SUM(Q37:Q38)</f>
+        <v>188</v>
+      </c>
+      <c r="R39" s="45">
+        <f>SQRT((Q39*10000))</f>
+        <v>1371.1309200802089</v>
+      </c>
+    </row>
+    <row r="40" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="H40" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="I40" s="35"/>
+      <c r="J40" s="36"/>
+    </row>
+    <row r="41" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="H41" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J41" s="4"/>
+    </row>
+    <row r="42" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="H42" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I42" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="J42" s="8">
+        <f>ROUNDUP(I18*I42,0)</f>
+        <v>51</v>
+      </c>
+      <c r="P42" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q42" s="32"/>
+      <c r="R42" s="33"/>
+      <c r="S42" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="T42" s="32"/>
+      <c r="U42" s="4"/>
+    </row>
+    <row r="43" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="H43" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I43" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="J43" s="12">
+        <f>ROUNDUP(I18*I43,0)</f>
         <v>17</v>
       </c>
-      <c r="I30" s="13">
+      <c r="P43" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q43" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="R43" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="S43" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="T43" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="U43" s="8"/>
+    </row>
+    <row r="44" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="P44" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q44" s="48">
+        <v>6.45</v>
+      </c>
+      <c r="R44" s="8">
+        <f>ROUNDUP(E6/Q44,0)</f>
+        <v>156</v>
+      </c>
+      <c r="S44" s="5">
+        <v>100</v>
+      </c>
+      <c r="T44" s="6">
+        <f>S44/10000</f>
+        <v>0.01</v>
+      </c>
+      <c r="U44" s="8">
+        <f>T44*R44</f>
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="45" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="M45" s="46"/>
+      <c r="P45" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q45">
+        <v>5.47</v>
+      </c>
+      <c r="R45" s="8">
+        <f>ROUNDUP(E7/Q45,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S45" s="5">
+        <v>240</v>
+      </c>
+      <c r="T45" s="6">
+        <f>S45/10000</f>
+        <v>2.4E-2</v>
+      </c>
+      <c r="U45" s="8">
+        <f t="shared" ref="U45:U46" si="2">T45*R45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="P46" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q46" s="48">
+        <v>3.67</v>
+      </c>
+      <c r="R46" s="8">
+        <f>ROUNDUP(E8/Q46,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S46" s="9">
+        <v>600</v>
+      </c>
+      <c r="T46" s="10">
+        <f>S46/10000</f>
+        <v>0.06</v>
+      </c>
+      <c r="U46" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D47" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="E47" s="55"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="H47" s="55"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="K47" s="55"/>
+      <c r="P47" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q47" s="25"/>
+      <c r="R47" s="22">
+        <f>SUM(R44:R46)</f>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="48" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>108</v>
+      </c>
+      <c r="E48" t="s">
+        <v>64</v>
+      </c>
+      <c r="F48" t="s">
+        <v>109</v>
+      </c>
+      <c r="G48" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" t="s">
+        <v>121</v>
+      </c>
+      <c r="I48" t="s">
+        <v>11</v>
+      </c>
+      <c r="J48" t="s">
+        <v>64</v>
+      </c>
+      <c r="K48" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>111</v>
+      </c>
+      <c r="E49" s="59">
+        <v>100000</v>
+      </c>
+      <c r="F49" s="59">
+        <v>1000000</v>
+      </c>
+      <c r="G49" s="60">
+        <v>0.4</v>
+      </c>
+      <c r="H49" s="60">
+        <v>0.25</v>
+      </c>
+      <c r="I49" s="60">
+        <v>0.35</v>
+      </c>
+      <c r="J49">
+        <v>0.3</v>
+      </c>
+      <c r="K49">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>112</v>
+      </c>
+      <c r="E50" s="59">
+        <v>20000</v>
+      </c>
+      <c r="F50" s="59">
+        <v>500000</v>
+      </c>
+      <c r="G50" s="60">
+        <v>0.45</v>
+      </c>
+      <c r="H50" s="60">
+        <v>0.25</v>
+      </c>
+      <c r="I50" s="60">
+        <v>0.3</v>
+      </c>
+      <c r="J50">
         <v>0.5</v>
       </c>
-      <c r="J30" s="8"/>
-    </row>
-    <row r="31" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="H31" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I31" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="J31" s="8"/>
-    </row>
-    <row r="32" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="H32" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I32" s="15">
-        <v>0.4</v>
-      </c>
-      <c r="J32" s="12"/>
-    </row>
-    <row r="35" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H35" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H36" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I36" s="13">
+      <c r="K50">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>119</v>
+      </c>
+      <c r="E51" s="59">
+        <v>15000</v>
+      </c>
+      <c r="F51" s="59">
+        <v>50000</v>
+      </c>
+      <c r="G51" s="60">
+        <v>0.5</v>
+      </c>
+      <c r="H51" s="60">
+        <v>0.25</v>
+      </c>
+      <c r="I51" s="60">
+        <v>0.25</v>
+      </c>
+      <c r="J51">
+        <v>0.5</v>
+      </c>
+      <c r="K51">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>120</v>
+      </c>
+      <c r="E52" s="59">
+        <v>12000</v>
+      </c>
+      <c r="F52" s="59">
+        <v>15000</v>
+      </c>
+      <c r="G52" s="60">
+        <v>0.45</v>
+      </c>
+      <c r="H52" s="60">
+        <v>0.35</v>
+      </c>
+      <c r="I52" s="60">
+        <v>0.2</v>
+      </c>
+      <c r="J52">
+        <v>0.65</v>
+      </c>
+      <c r="K52">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>91</v>
+      </c>
+      <c r="E53" s="59">
+        <v>8000</v>
+      </c>
+      <c r="F53" s="59">
+        <v>12000</v>
+      </c>
+      <c r="G53" s="60">
+        <v>0.5</v>
+      </c>
+      <c r="H53" s="60">
+        <v>0.35</v>
+      </c>
+      <c r="I53" s="60">
+        <v>0.15</v>
+      </c>
+      <c r="J53">
+        <v>0.7</v>
+      </c>
+      <c r="K53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>113</v>
+      </c>
+      <c r="E54" s="59">
+        <v>5000</v>
+      </c>
+      <c r="F54" s="59">
+        <v>8000</v>
+      </c>
+      <c r="G54" s="60">
+        <v>0.65</v>
+      </c>
+      <c r="H54" s="60">
+        <v>0.23</v>
+      </c>
+      <c r="I54" s="60">
+        <v>0.12</v>
+      </c>
+      <c r="J54">
         <v>0.75</v>
       </c>
-      <c r="J36" s="8">
-        <f>ROUNDUP(I16*I36,0)</f>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="37" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H37" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I37" s="15">
-        <v>0.25</v>
-      </c>
-      <c r="J37" s="12">
-        <f>ROUNDUP(I16*I37,0)</f>
-        <v>29</v>
+      <c r="K54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>114</v>
+      </c>
+      <c r="E55" s="59">
+        <v>3000</v>
+      </c>
+      <c r="F55" s="59">
+        <v>5000</v>
+      </c>
+      <c r="G55" s="60">
+        <v>0.75</v>
+      </c>
+      <c r="H55" s="60">
+        <v>0.17</v>
+      </c>
+      <c r="I55" s="60">
+        <v>0.08</v>
+      </c>
+      <c r="J55">
+        <v>0.9</v>
+      </c>
+      <c r="K55">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>115</v>
+      </c>
+      <c r="E56" s="59">
+        <v>1000</v>
+      </c>
+      <c r="F56" s="59">
+        <v>3000</v>
+      </c>
+      <c r="G56" s="60">
+        <v>0.8</v>
+      </c>
+      <c r="H56" s="60">
+        <v>0.15</v>
+      </c>
+      <c r="I56" s="60">
+        <v>0.05</v>
+      </c>
+      <c r="J56">
+        <v>1.05</v>
+      </c>
+      <c r="K56">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>116</v>
+      </c>
+      <c r="E57" s="59">
+        <v>300</v>
+      </c>
+      <c r="F57" s="59">
+        <v>1000</v>
+      </c>
+      <c r="G57" s="60">
+        <v>0.9</v>
+      </c>
+      <c r="H57" s="60">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I57" s="60">
+        <v>0.03</v>
+      </c>
+      <c r="J57">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K57">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>118</v>
+      </c>
+      <c r="E58" s="59">
+        <v>50</v>
+      </c>
+      <c r="F58" s="59">
+        <v>300</v>
+      </c>
+      <c r="G58" s="60">
+        <v>0.95</v>
+      </c>
+      <c r="H58" s="60">
+        <v>0.05</v>
+      </c>
+      <c r="I58" s="60">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>1.2</v>
+      </c>
+      <c r="K58">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>117</v>
+      </c>
+      <c r="E59" s="59">
+        <v>10</v>
+      </c>
+      <c r="F59" s="59">
+        <v>50</v>
+      </c>
+      <c r="G59" s="56">
+        <v>1</v>
+      </c>
+      <c r="H59" s="56">
+        <v>0</v>
+      </c>
+      <c r="I59" s="56">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>1.5</v>
+      </c>
+      <c r="K59">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="I21:J21"/>
+  <mergeCells count="26">
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="P42:R42"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="P10:T10"/>
+    <mergeCell ref="P16:T16"/>
+    <mergeCell ref="P17:T17"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H23:J24"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="H28:J28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="J17" formula="1"/>
+    <ignoredError sqref="J19" formula="1"/>
+    <ignoredError sqref="Y15:Z15" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>